--- a/docs/h!Stroy_목록_20170327.xlsx
+++ b/docs/h!Stroy_목록_20170327.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="645" windowWidth="16755" windowHeight="10455" tabRatio="919"/>
+    <workbookView xWindow="10260" yWindow="645" windowWidth="16755" windowHeight="10455" tabRatio="919" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="7" r:id="rId1"/>
@@ -12242,7 +12242,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3371850" cy="3536866"/>
+    <xdr:ext cx="3371850" cy="3709092"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -12251,7 +12251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266700" y="12773025"/>
-          <a:ext cx="3371850" cy="3536866"/>
+          <a:ext cx="3371850" cy="3709092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12284,122 +12284,284 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>SELECT TT1.*</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>FROM</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    SELECT T3.*, T4.NAME, T4.PF_IMAGE</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT T3.RNUM AS RNUM, T3.ID AS ID, T3.TITLE AS TITLE, T4.NAME AS NAME, T4.PF_IMAGE AS PF_IMAGE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>    FROM</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    (</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      SELECT ROWNUM RNUM, T1.ID, T2.TITLE</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      SELECT ROWNUM RNUM, T1.ID AS ID, T2.TITLE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>      FROM</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      (</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>        SELECT COUNT(*) TOTAL_CNT, A.ID</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>        FROM POST_H A INNER JOIN LOVE_H B</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>        ON A.SEQ = B.POST_SEQ</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>        GROUP BY A.ID</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>        ORDER BY TOTAL_CNT DESC</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>       )T1 INNER JOIN BLOG_H T2</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>      ON T1.ID = T2.ID</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>    )T3 INNER JOIN USER_H T4</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>    ON T3.ID = T4.ID</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>)TT1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>WHERE TT1.RNUM &lt;=4;</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHERE TT1.RNUM &lt;=4</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -12411,10 +12573,10 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4114800" cy="6781800"/>
+    <xdr:ext cx="4114800" cy="9096375"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -12422,8 +12584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505325" y="12849225"/>
-          <a:ext cx="4114800" cy="6781800"/>
+          <a:off x="4505325" y="12849224"/>
+          <a:ext cx="4114800" cy="9096375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12467,9 +12629,6 @@
             </a:rPr>
             <a:t>SELECT TT2.*</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12484,9 +12643,6 @@
             </a:rPr>
             <a:t>FROM</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12501,9 +12657,6 @@
             </a:rPr>
             <a:t>  (SELECT ROWNUM RNUM, T3.*, T4.*</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12518,9 +12671,6 @@
             </a:rPr>
             <a:t>  FROM</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12533,11 +12683,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    (SELECT *</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>    (SELECT T1.*, T2.POST_SEQ, T2.LOCATION, T2.ORI_NAME, T2.SAVE_NAME</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -12552,9 +12699,6 @@
             </a:rPr>
             <a:t>    FROM</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12737,9 +12881,6 @@
             </a:rPr>
             <a:t>      AND STATE IN (0,3)</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12755,7 +12896,7 @@
             <a:t>      AND CONTENT LIKE '%</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12778,9 +12919,6 @@
             </a:rPr>
             <a:t>%'</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12795,9 +12933,6 @@
             </a:rPr>
             <a:t>      )T1</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12812,9 +12947,6 @@
             </a:rPr>
             <a:t>    LEFT OUTER JOIN</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12827,11 +12959,36 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      ( SELECT POST_SEQ, ORI_NAME, SAVE_NAME FROM BOX_H WHERE SAVE_NAME LIKE '%1.jpg%'</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>      ( SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         FROM BOX_H B</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         WHERE B.LOCATION = 0</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -12846,9 +13003,6 @@
             </a:rPr>
             <a:t>      )T2</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12863,9 +13017,76 @@
             </a:rPr>
             <a:t>    ON T1.SEQ = T2.POST_SEQ</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    WHERE T2.SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    HAVING POST_SEQ = T1.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    OR T2.POST_SEQ IS NULL</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -12880,9 +13101,6 @@
             </a:rPr>
             <a:t>    ) T3 NATURAL JOIN</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12897,9 +13115,6 @@
             </a:rPr>
             <a:t>    (SELECT COUNT(*) TOT_CNT</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12914,9 +13129,6 @@
             </a:rPr>
             <a:t>    FROM POST_H B1</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12931,9 +13143,6 @@
             </a:rPr>
             <a:t>    WHERE EXISTS</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12948,9 +13157,6 @@
             </a:rPr>
             <a:t>      (SELECT 1 </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12965,9 +13171,6 @@
             </a:rPr>
             <a:t>      FROM FOLLOW_H B2 </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12982,9 +13185,6 @@
             </a:rPr>
             <a:t>      WHERE B1.ID = B2.YOU_ID </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -12999,9 +13199,6 @@
             </a:rPr>
             <a:t>      AND B2.MY_ID='Y4366'</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -13016,9 +13213,6 @@
             </a:rPr>
             <a:t>      )</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -13033,9 +13227,6 @@
             </a:rPr>
             <a:t>    AND STATE IN (0,3)</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -13051,7 +13242,7 @@
             <a:t>    AND CONTENT LIKE '%</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -13074,9 +13265,6 @@
             </a:rPr>
             <a:t>%'</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -13091,9 +13279,6 @@
             </a:rPr>
             <a:t>    )T4</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -13108,9 +13293,6 @@
             </a:rPr>
             <a:t>  )TT2</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -13137,14 +13319,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>295273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13153,8 +13335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801100" y="12849225"/>
-          <a:ext cx="2752725" cy="4210050"/>
+          <a:off x="8801100" y="12849223"/>
+          <a:ext cx="2752725" cy="45224702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13193,49 +13375,49 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>SELECT TT2.*</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>FROM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    (SELECT ROWNUM RNUM, A1.*, A2.*</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    FROM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      (SELECT *</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      FROM POST_H A</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      WHERE STATE = 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      AND A.FIELD LIKE '</a:t>
+            <a:t>SELECT TT21.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A11.*, A21.ORI_NAME, A21.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A1.FIELD LIKE '</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
@@ -13249,85 +13431,1399 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      ORDER BY WDATE DESC, SEQ DESC</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      )A1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      LEFT OUTER JOIN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      ( SELECT B.SEQ AS BOX_SEQ, B.ORI_NAME, B.SAVE_NAME, B.POST_SEQ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>        FROM BOX_H B</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>        WHERE B.LOCATION = 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>      )A2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    ON A1.SEQ = A2.POST_SEQ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    WHERE A2.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                  FROM BOX_H </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                  GROUP BY POST_SEQ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                  HAVING POST_SEQ = A1.SEQ)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    OR A2.POST_SEQ IS NULL) TT2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>WHERE TT2.RNUM BETWEEN 1 AND 6;</a:t>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B1.SEQ AS BOX_SEQ, B1.ORI_NAME, B1.SAVE_NAME, B1.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B1.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A11.SEQ = A21.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A21.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A11.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A21.POST_SEQ IS NULL) TT21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT21.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  SELECT TT2.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A1.*, A2.ORI_NAME, A2.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B.SEQ AS BOX_SEQ, B.ORI_NAME, B.SAVE_NAME, B.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A1.SEQ = A2.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A2.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A1.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A2.POST_SEQ IS NULL) TT2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT2.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  SELECT TT23.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A13.*, A23.ORI_NAME, A23.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A3.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B3.SEQ AS BOX_SEQ, B3.ORI_NAME, B3.SAVE_NAME, B3.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B3.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A23</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A13.SEQ = A23.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A23.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A13.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A23.POST_SEQ IS NULL) TT23</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT23.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>   SELECT TT24.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A14.*, A24.ORI_NAME, A24.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A4.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B4.SEQ AS BOX_SEQ, B4.ORI_NAME, B4.SAVE_NAME, B4.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B4.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A24</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A14.SEQ = A24.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A24.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A14.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A24.POST_SEQ IS NULL) TT24</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT24.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>   SELECT TT25.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A15.*, A25.ORI_NAME, A25.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A5.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B5.SEQ AS BOX_SEQ, B5.ORI_NAME, B5.SAVE_NAME, B5.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B5.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A15.SEQ = A25.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A25.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A15.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A25.POST_SEQ IS NULL) TT25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT25.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>   SELECT TT26.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A16.*, A26.ORI_NAME, A26.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A6.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B6.SEQ AS BOX_SEQ, B6.ORI_NAME, B6.SAVE_NAME, B6.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B6.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A16.SEQ = A26.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A26.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A16.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A26.POST_SEQ IS NULL) TT26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT26.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>   SELECT TT27.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A17.*, A27.ORI_NAME, A27.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A7.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A17</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B7.SEQ AS BOX_SEQ, B7.ORI_NAME, B7.SAVE_NAME, B7.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B7.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A27</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A17.SEQ = A27.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A27.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A17.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A27.POST_SEQ IS NULL) TT27</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT27.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>   SELECT TT28.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A18.*, A28.ORI_NAME, A28.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A8.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B8.SEQ AS BOX_SEQ, B8.ORI_NAME, B8.SAVE_NAME, B8.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B8.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A28</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A18.SEQ = A28.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A28.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A18.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A28.POST_SEQ IS NULL) TT28</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT28.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>   SELECT TT29.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A19.*, A29.ORI_NAME, A29.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A9.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A19</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B9.SEQ AS BOX_SEQ, B9.ORI_NAME, B9.SAVE_NAME, B9.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B9.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A29</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A19.SEQ = A29.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A29.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A19.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A29.POST_SEQ IS NULL) TT29</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT29.RNUM BETWEEN 1 AND 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>   SELECT TT210.*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      (SELECT ROWNUM RNUM, A110.*, A210.ORI_NAME, A210.SAVE_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        (SELECT *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        FROM POST_H A10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        WHERE STATE = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        AND A10.FIELD LIKE '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ORDER BY WDATE DESC, SEQ DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A110</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        LEFT OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ( SELECT B10.SEQ AS BOX_SEQ, B10.ORI_NAME, B10.SAVE_NAME, B10.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          FROM BOX_H B10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>          WHERE B10.LOCATION = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        )A210</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      ON A110.SEQ = A210.POST_SEQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      WHERE A210.BOX_SEQ = (SELECT MIN(SEQ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    FROM BOX_H </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    GROUP BY POST_SEQ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    HAVING POST_SEQ = A110.SEQ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      OR A210.POST_SEQ IS NULL) TT210</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>  WHERE TT210.RNUM BETWEEN 1 AND 3;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -13452,7 +14948,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3895725" cy="3852465"/>
+    <xdr:ext cx="3895725" cy="7162800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -13461,7 +14957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14668500" y="12849225"/>
-          <a:ext cx="3895725" cy="3852465"/>
+          <a:ext cx="3895725" cy="7162800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13489,7 +14985,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -13593,7 +15089,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    'faithbae41',</a:t>
+            <a:t>    'Y4366',</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13605,27 +15101,109 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    '0',</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    '</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>대구</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>',</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>    to_date('19930218', 'YYYYMMDD')</a:t>
+            <a:t>    (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      select NULL SEX from dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      where not exists (SELECT SEX FROM USER_H WHERE ID='Y4366')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      union</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      SELECT SEX FROM USER_H WHERE ID='Y4366'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    ),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      select NULL AREA from dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      where not exists (SELECT AREA FROM USER_H WHERE ID='Y4366')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      union</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      SELECT AREA FROM USER_H WHERE ID='Y4366'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    ),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      select NULL BIRTH from dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      where not exists (SELECT BIRTH FROM USER_H WHERE ID='Y4366')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      union</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>      SELECT BIRTH FROM USER_H WHERE ID='Y4366'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13654,8 +15232,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13665,7 +15243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="238125" y="11477625"/>
-          <a:ext cx="3905250" cy="8610600"/>
+          <a:ext cx="3905250" cy="9020175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13716,7 +15294,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>				     SELECT ROWNUM RNUM,T1.*,T2.*</a:t>
+            <a:t>				     SELECT ROWNUM RNUM,T1.*, T2.*</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13728,7 +15306,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    SELECT *</a:t>
+            <a:t>                    SELECT A1.*, A2.POST_SEQ, A2.ORI_NAME, A2.SAVE_NAME</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13740,7 +15318,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                      (SELECT * </a:t>
+            <a:t>                      (SELECT A.SEQ, A.CT_SEQ, A.ID, A.FIELD, A.TITLE, A.CONTENT, A.WDATE, A.HASHTAG, A.STATE, A.CO_STATE </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13790,7 +15368,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                      ( SELECT B.* </a:t>
+            <a:t>                      ( SELECT B.SEQ, B.POST_SEQ, B.ORI_NAME, B.SAVE_NAME</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14762,8 +16340,8 @@
   </sheetPr>
   <dimension ref="B1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
@@ -16999,7 +18577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -32938,8 +34516,8 @@
   </sheetPr>
   <dimension ref="B1:L116"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35827,8 +37405,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="F35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
@@ -36355,8 +37933,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
